--- a/docs/homebrewing/recipes/04_SMaSH_Fuggle/04_SMaSH_Fuggle_Water_agents.xlsx
+++ b/docs/homebrewing/recipes/04_SMaSH_Fuggle/04_SMaSH_Fuggle_Water_agents.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Beer\homebrewing\01 recipes\04_SMaSH_Fuggle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{406C83A1-B731-45DB-9060-C0EAF0FB0DFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B160375A-1C9B-4755-8F0B-386E4FE52330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,9 @@
     <sheet name="Raw Text Format" sheetId="3" r:id="rId2"/>
     <sheet name="Version information" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'EZ Water Adjustment'!$A$1:$K$55</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1821,6 +1824,112 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1856,114 +1965,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4796,10 +4799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:N56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="C1" sqref="C1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4814,17 +4820,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C1" s="171" t="s">
+      <c r="C1" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
+      <c r="D1" s="159"/>
+      <c r="E1" s="159"/>
+      <c r="F1" s="159"/>
+      <c r="G1" s="159"/>
+      <c r="H1" s="159"/>
+      <c r="I1" s="159"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="159"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4860,11 +4866,11 @@
       <c r="H3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="173" t="s">
+      <c r="I3" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="173"/>
-      <c r="K3" s="174">
+      <c r="J3" s="161"/>
+      <c r="K3" s="162">
         <v>1</v>
       </c>
       <c r="L3" s="1"/>
@@ -4889,11 +4895,11 @@
       <c r="H4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="160" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="172"/>
-      <c r="K4" s="174"/>
+      <c r="J4" s="160"/>
+      <c r="K4" s="162"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4951,11 +4957,11 @@
       <c r="F7" s="7"/>
       <c r="G7" s="10"/>
       <c r="H7" s="30"/>
-      <c r="I7" s="179" t="s">
+      <c r="I7" s="167" t="s">
         <v>107</v>
       </c>
-      <c r="J7" s="179"/>
-      <c r="K7" s="180"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="168"/>
       <c r="L7" s="1"/>
     </row>
     <row r="8" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -4972,9 +4978,9 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
       <c r="H8" s="30"/>
-      <c r="I8" s="179"/>
-      <c r="J8" s="179"/>
-      <c r="K8" s="180"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="168"/>
     </row>
     <row r="9" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9"/>
@@ -4992,9 +4998,9 @@
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
       <c r="H9" s="30"/>
-      <c r="I9" s="179"/>
-      <c r="J9" s="179"/>
-      <c r="K9" s="180"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="168"/>
     </row>
     <row r="10" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9"/>
@@ -5010,9 +5016,9 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="30"/>
-      <c r="I10" s="179"/>
-      <c r="J10" s="179"/>
-      <c r="K10" s="180"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="168"/>
     </row>
     <row r="11" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="38"/>
@@ -5022,9 +5028,9 @@
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="41"/>
-      <c r="I11" s="181"/>
-      <c r="J11" s="181"/>
-      <c r="K11" s="182"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="169"/>
+      <c r="K11" s="170"/>
     </row>
     <row r="12" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="54"/>
@@ -5098,7 +5104,7 @@
     </row>
     <row r="15" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="58"/>
-      <c r="C15" s="193" t="s">
+      <c r="C15" s="181" t="s">
         <v>115</v>
       </c>
       <c r="D15" s="61">
@@ -5127,7 +5133,7 @@
     </row>
     <row r="16" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="58"/>
-      <c r="C16" s="193"/>
+      <c r="C16" s="181"/>
       <c r="D16" s="61">
         <v>1</v>
       </c>
@@ -5154,7 +5160,7 @@
     </row>
     <row r="17" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="58"/>
-      <c r="C17" s="193"/>
+      <c r="C17" s="181"/>
       <c r="D17" s="61">
         <v>1</v>
       </c>
@@ -5181,7 +5187,7 @@
     </row>
     <row r="18" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="58"/>
-      <c r="C18" s="193"/>
+      <c r="C18" s="181"/>
       <c r="D18" s="61">
         <v>1</v>
       </c>
@@ -5208,7 +5214,7 @@
     </row>
     <row r="19" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="58"/>
-      <c r="C19" s="193"/>
+      <c r="C19" s="181"/>
       <c r="D19" s="61">
         <v>1</v>
       </c>
@@ -5235,7 +5241,7 @@
     </row>
     <row r="20" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="58"/>
-      <c r="C20" s="193"/>
+      <c r="C20" s="181"/>
       <c r="D20" s="61">
         <v>1</v>
       </c>
@@ -5262,7 +5268,7 @@
     </row>
     <row r="21" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="58"/>
-      <c r="C21" s="193"/>
+      <c r="C21" s="181"/>
       <c r="D21" s="61">
         <v>1</v>
       </c>
@@ -5289,7 +5295,7 @@
     </row>
     <row r="22" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="58"/>
-      <c r="C22" s="193"/>
+      <c r="C22" s="181"/>
       <c r="D22" s="61">
         <v>1</v>
       </c>
@@ -5316,7 +5322,7 @@
     </row>
     <row r="23" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="58"/>
-      <c r="C23" s="193"/>
+      <c r="C23" s="181"/>
       <c r="D23" s="61">
         <v>1</v>
       </c>
@@ -5353,12 +5359,12 @@
       </c>
       <c r="F24" s="64"/>
       <c r="G24" s="65"/>
-      <c r="H24" s="198" t="s">
+      <c r="H24" s="186" t="s">
         <v>126</v>
       </c>
-      <c r="I24" s="199"/>
-      <c r="J24" s="199"/>
-      <c r="K24" s="200"/>
+      <c r="I24" s="187"/>
+      <c r="J24" s="187"/>
+      <c r="K24" s="188"/>
     </row>
     <row r="25" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="58"/>
@@ -5372,10 +5378,10 @@
       </c>
       <c r="F25" s="121"/>
       <c r="G25" s="65"/>
-      <c r="H25" s="199"/>
-      <c r="I25" s="199"/>
-      <c r="J25" s="199"/>
-      <c r="K25" s="200"/>
+      <c r="H25" s="187"/>
+      <c r="I25" s="187"/>
+      <c r="J25" s="187"/>
+      <c r="K25" s="188"/>
     </row>
     <row r="26" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="58"/>
@@ -5389,10 +5395,10 @@
       </c>
       <c r="F26" s="121"/>
       <c r="G26" s="65"/>
-      <c r="H26" s="199"/>
-      <c r="I26" s="199"/>
-      <c r="J26" s="199"/>
-      <c r="K26" s="200"/>
+      <c r="H26" s="187"/>
+      <c r="I26" s="187"/>
+      <c r="J26" s="187"/>
+      <c r="K26" s="188"/>
     </row>
     <row r="27" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="66"/>
@@ -5404,10 +5410,10 @@
       </c>
       <c r="F27" s="118"/>
       <c r="G27" s="118"/>
-      <c r="H27" s="201"/>
-      <c r="I27" s="201"/>
-      <c r="J27" s="201"/>
-      <c r="K27" s="202"/>
+      <c r="H27" s="189"/>
+      <c r="I27" s="189"/>
+      <c r="J27" s="189"/>
+      <c r="K27" s="190"/>
       <c r="L27" s="1"/>
     </row>
     <row r="28" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5419,55 +5425,55 @@
       <c r="E28" s="106"/>
       <c r="F28" s="107"/>
       <c r="G28" s="107"/>
-      <c r="H28" s="189" t="s">
+      <c r="H28" s="177" t="s">
         <v>130</v>
       </c>
-      <c r="I28" s="189"/>
-      <c r="J28" s="189"/>
-      <c r="K28" s="190"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="178"/>
       <c r="L28" s="1"/>
     </row>
     <row r="29" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="101"/>
       <c r="C29" s="103"/>
-      <c r="D29" s="177" t="s">
+      <c r="D29" s="165" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="203" t="s">
+      <c r="E29" s="191" t="s">
         <v>128</v>
       </c>
-      <c r="F29" s="185" t="s">
+      <c r="F29" s="173" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="187" t="s">
+      <c r="G29" s="175" t="s">
         <v>122</v>
       </c>
-      <c r="H29" s="191"/>
-      <c r="I29" s="191"/>
-      <c r="J29" s="191"/>
-      <c r="K29" s="192"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="179"/>
+      <c r="K29" s="180"/>
       <c r="L29" s="1"/>
     </row>
     <row r="30" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="101"/>
       <c r="C30" s="109"/>
-      <c r="D30" s="177"/>
-      <c r="E30" s="204"/>
-      <c r="F30" s="185"/>
-      <c r="G30" s="187"/>
-      <c r="H30" s="191"/>
-      <c r="I30" s="191"/>
-      <c r="J30" s="191"/>
-      <c r="K30" s="192"/>
+      <c r="D30" s="165"/>
+      <c r="E30" s="192"/>
+      <c r="F30" s="173"/>
+      <c r="G30" s="175"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="179"/>
+      <c r="K30" s="180"/>
       <c r="L30" s="1"/>
     </row>
     <row r="31" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="101"/>
       <c r="C31" s="102"/>
-      <c r="D31" s="178"/>
-      <c r="E31" s="205"/>
-      <c r="F31" s="186"/>
-      <c r="G31" s="188"/>
+      <c r="D31" s="166"/>
+      <c r="E31" s="193"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="176"/>
       <c r="H31" s="115"/>
       <c r="I31" s="115"/>
       <c r="J31" s="115"/>
@@ -5483,21 +5489,21 @@
       </c>
       <c r="E32" s="112">
         <f>D32-((D51/1.4)+(E51/1.7))</f>
-        <v>74.159431691758087</v>
+        <v>89.748876310660179</v>
       </c>
       <c r="F32" s="113">
         <f>(E15*G15+E16*G16+E17*G17+E18*G18+E19*G19+E20*G20+E21*G21+E22*G22+E23*G23)/E24+(0.1085*D9/E25+0.013)*E32/50</f>
-        <v>5.8471310687186859</v>
+        <v>5.8633451968040333</v>
       </c>
       <c r="G32" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="H32" s="191" t="s">
+      <c r="H32" s="179" t="s">
         <v>125</v>
       </c>
-      <c r="I32" s="194"/>
-      <c r="J32" s="194"/>
-      <c r="K32" s="195"/>
+      <c r="I32" s="182"/>
+      <c r="J32" s="182"/>
+      <c r="K32" s="183"/>
       <c r="L32" s="1"/>
     </row>
     <row r="33" spans="2:12" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5507,10 +5513,10 @@
       <c r="E33" s="125"/>
       <c r="F33" s="125"/>
       <c r="G33" s="133"/>
-      <c r="H33" s="196"/>
-      <c r="I33" s="196"/>
-      <c r="J33" s="196"/>
-      <c r="K33" s="197"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="184"/>
+      <c r="J33" s="184"/>
+      <c r="K33" s="185"/>
       <c r="L33" s="1"/>
     </row>
     <row r="34" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5588,9 +5594,9 @@
       <c r="D37" s="13">
         <v>0</v>
       </c>
-      <c r="E37" s="207">
-        <f>0.41*1.335</f>
-        <v>0.54735</v>
+      <c r="E37" s="158">
+        <f>0.41/1.335</f>
+        <v>0.30711610486891383</v>
       </c>
       <c r="F37" s="13">
         <v>0.09</v>
@@ -5687,13 +5693,13 @@
       <c r="D41" s="91"/>
       <c r="E41" s="91"/>
       <c r="F41" s="91"/>
-      <c r="G41" s="161" t="s">
+      <c r="G41" s="197" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
-      <c r="J41" s="161"/>
-      <c r="K41" s="162"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="198"/>
     </row>
     <row r="42" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="85"/>
@@ -5707,11 +5713,11 @@
       <c r="F42" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="G42" s="163"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="163"/>
-      <c r="J42" s="163"/>
-      <c r="K42" s="164"/>
+      <c r="G42" s="199"/>
+      <c r="H42" s="199"/>
+      <c r="I42" s="199"/>
+      <c r="J42" s="199"/>
+      <c r="K42" s="200"/>
     </row>
     <row r="43" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="75"/>
@@ -5727,11 +5733,11 @@
       <c r="F43" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="G43" s="163"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="163"/>
-      <c r="J43" s="163"/>
-      <c r="K43" s="164"/>
+      <c r="G43" s="199"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="199"/>
+      <c r="K43" s="200"/>
     </row>
     <row r="44" spans="2:12" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="85"/>
@@ -5844,10 +5850,10 @@
       <c r="H49" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I49" s="184" t="s">
+      <c r="I49" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="J49" s="184"/>
+      <c r="J49" s="172"/>
       <c r="K49" s="45"/>
       <c r="L49" s="1"/>
     </row>
@@ -5869,10 +5875,10 @@
       <c r="H50" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="I50" s="183" t="s">
+      <c r="I50" s="171" t="s">
         <v>56</v>
       </c>
-      <c r="J50" s="183"/>
+      <c r="J50" s="171"/>
       <c r="K50" s="48"/>
       <c r="L50" s="19"/>
       <c r="M50" s="2"/>
@@ -5884,7 +5890,7 @@
       </c>
       <c r="D51" s="49">
         <f>(1-D$10)*D$5+(F$44*105.89+D$37*60+E$37*72+D$44*143)/D$9</f>
-        <v>90.726686196799989</v>
+        <v>68.901463730337071</v>
       </c>
       <c r="E51" s="49">
         <f>(1-D$10)*E$5+F$37*24.6/D$9</f>
@@ -5896,17 +5902,17 @@
       </c>
       <c r="G51" s="49">
         <f>(1-D$10)*G$5+E$37*127.47/D$9</f>
-        <v>88.036954020917989</v>
+        <v>49.397216412584264</v>
       </c>
       <c r="H51" s="49">
         <f>(1-D$10)*H$5+(D$37*147.4+F$37*103)/D$9</f>
         <v>55.696923079999998</v>
       </c>
-      <c r="I51" s="169">
+      <c r="I51" s="205">
         <f>G51/H51</f>
-        <v>1.580643043682441</v>
-      </c>
-      <c r="J51" s="170"/>
+        <v>0.88689309356699686</v>
+      </c>
+      <c r="J51" s="206"/>
       <c r="K51" s="11"/>
     </row>
     <row r="52" spans="2:14" s="2" customFormat="1" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5916,7 +5922,7 @@
       </c>
       <c r="D52" s="50">
         <f>IF(E8=0,D51,(1-(((D$10*D$9)+(E$10*E$9))/(D$9+E$9)))*D$5+((F$44+F$46)*105.89+(D$37+D$39)*60+(E$37+E$39)*72+(D$44+D$46)*143)/(D$9+E$9))</f>
-        <v>57.39341303191209</v>
+        <v>50.198284746264974</v>
       </c>
       <c r="E52" s="50">
         <f>IF(E8=0,E51,(1-(((D$10*D$9)+(E$10*E$9))/(D$9+E$9)))*E$5+(F$37+F$39)*24.6/(D$9+E$9))</f>
@@ -5928,17 +5934,17 @@
       </c>
       <c r="G52" s="50">
         <f>IF(E8=0,G51,(1-(((D$10*D$9)+(E$10*E$9))/(D$9+E$9)))*G$5+(E$37+E$39)*127.47/(D$9+E$9))</f>
-        <v>29.023171655247694</v>
+        <v>16.284796619533275</v>
       </c>
       <c r="H52" s="50">
         <f>IF(E8=0,H51,(1-(((D$10*D$9)+(E$10*E$9))/(D$9+E$9)))*H$5+((D$37+D$39)*147.4+(F$37+F$39)*103)/(D$9+E$9))</f>
         <v>47.856128487912088</v>
       </c>
-      <c r="I52" s="175">
+      <c r="I52" s="163">
         <f>G52/H52</f>
-        <v>0.60646718763676455</v>
-      </c>
-      <c r="J52" s="176"/>
+        <v>0.34028654498548977</v>
+      </c>
+      <c r="J52" s="164"/>
       <c r="K52" s="11"/>
       <c r="M52" s="1"/>
     </row>
@@ -5962,42 +5968,42 @@
       <c r="H53" s="53" t="s">
         <v>42</v>
       </c>
-      <c r="I53" s="167" t="str">
+      <c r="I53" s="203" t="str">
         <f>IF(I52&lt;0.77,"Below .77, May enhance bitterness", IF(I52&lt;1.3,".77 to 1.3 = Balanced","Above 1.3 may enhance maltiness"))</f>
         <v>Below .77, May enhance bitterness</v>
       </c>
-      <c r="J53" s="168"/>
+      <c r="J53" s="204"/>
       <c r="K53" s="45"/>
       <c r="L53" s="1"/>
     </row>
     <row r="54" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="6"/>
-      <c r="C54" s="165" t="s">
+      <c r="C54" s="201" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="165"/>
-      <c r="E54" s="165"/>
-      <c r="F54" s="165"/>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="165"/>
-      <c r="K54" s="166"/>
+      <c r="D54" s="201"/>
+      <c r="E54" s="201"/>
+      <c r="F54" s="201"/>
+      <c r="G54" s="201"/>
+      <c r="H54" s="201"/>
+      <c r="I54" s="201"/>
+      <c r="J54" s="201"/>
+      <c r="K54" s="202"/>
       <c r="L54" s="1"/>
       <c r="M54" s="2"/>
       <c r="N54" s="19"/>
     </row>
     <row r="55" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B55" s="12"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="158"/>
-      <c r="F55" s="158"/>
-      <c r="G55" s="158"/>
-      <c r="H55" s="158"/>
-      <c r="I55" s="159"/>
-      <c r="J55" s="159"/>
-      <c r="K55" s="160"/>
+      <c r="C55" s="194"/>
+      <c r="D55" s="194"/>
+      <c r="E55" s="194"/>
+      <c r="F55" s="194"/>
+      <c r="G55" s="194"/>
+      <c r="H55" s="194"/>
+      <c r="I55" s="195"/>
+      <c r="J55" s="195"/>
+      <c r="K55" s="196"/>
     </row>
     <row r="56" spans="2:14" s="154" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="155"/>
@@ -6013,6 +6019,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C55:K55"/>
+    <mergeCell ref="G41:K43"/>
+    <mergeCell ref="C54:K54"/>
+    <mergeCell ref="I53:J53"/>
+    <mergeCell ref="I51:J51"/>
     <mergeCell ref="C1:K1"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="I3:J3"/>
@@ -6029,11 +6040,6 @@
     <mergeCell ref="H32:K33"/>
     <mergeCell ref="H24:K27"/>
     <mergeCell ref="E29:E31"/>
-    <mergeCell ref="C55:K55"/>
-    <mergeCell ref="G41:K43"/>
-    <mergeCell ref="C54:K54"/>
-    <mergeCell ref="I53:J53"/>
-    <mergeCell ref="I51:J51"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="D53">
@@ -6072,7 +6078,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.51181102362204722" bottom="0.51181102362204722" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="60" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
@@ -6612,7 +6618,7 @@
       </c>
       <c r="B18" s="1">
         <f>'EZ Water Adjustment'!E37</f>
-        <v>0.54735</v>
+        <v>0.30711610486891383</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>47</v>
@@ -6699,14 +6705,14 @@
       </c>
       <c r="B26" s="26">
         <f>'EZ Water Adjustment'!D51</f>
-        <v>90.726686196799989</v>
+        <v>68.901463730337071</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D26" s="26">
         <f>'EZ Water Adjustment'!D52</f>
-        <v>57.39341303191209</v>
+        <v>50.198284746264974</v>
       </c>
       <c r="I26" s="26"/>
     </row>
@@ -6748,14 +6754,14 @@
       </c>
       <c r="B29" s="26">
         <f>'EZ Water Adjustment'!G51</f>
-        <v>88.036954020917989</v>
+        <v>49.397216412584264</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D29" s="26">
         <f>'EZ Water Adjustment'!G52</f>
-        <v>29.023171655247694</v>
+        <v>16.284796619533275</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -6780,14 +6786,14 @@
       </c>
       <c r="B31" s="27">
         <f>'EZ Water Adjustment'!I51</f>
-        <v>1.580643043682441</v>
+        <v>0.88689309356699686</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D31" s="27">
         <f>'EZ Water Adjustment'!I52</f>
-        <v>0.60646718763676455</v>
+        <v>0.34028654498548977</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -6810,7 +6816,7 @@
       </c>
       <c r="B34" s="26">
         <f>'EZ Water Adjustment'!E32</f>
-        <v>74.159431691758087</v>
+        <v>89.748876310660179</v>
       </c>
       <c r="C34" s="3"/>
     </row>
@@ -6820,7 +6826,7 @@
       </c>
       <c r="B35" s="27">
         <f>'EZ Water Adjustment'!F32</f>
-        <v>5.8471310687186859</v>
+        <v>5.8633451968040333</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
@@ -6852,11 +6858,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
